--- a/doc/副本大系列—型号模板.xlsx
+++ b/doc/副本大系列—型号模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\work\jeecg-boot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A95C5-AE38-4857-9085-E33AC615FC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A459E15-6B61-4BAC-85BE-F213063CD5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YJV系列" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="296">
   <si>
     <t>型号简称</t>
   </si>
@@ -1331,8 +1331,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2720,8 +2720,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5176,7 +5176,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5584,9 +5584,8 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>是</v>
+      <c r="E11" t="s">
+        <v>273</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
@@ -7109,7 +7108,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8193,8 +8192,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
